--- a/data/flipkart.xlsx
+++ b/data/flipkart.xlsx
@@ -7,7 +7,19 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Flipkart" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="15_128GB" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="15_256GB" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="15_512GB" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="15_Plus_128GB" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="15_Plus_256GB" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="15_Plus_512GB" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="15_Pro_128GB" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="15_Pro_256GB" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="15_Pro_512GB" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="15_Pro_1TB" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="15_ProMax_256GB" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="15_ProMax_512GB" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="15_ProMax_1TB" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +458,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Internal Storage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Rating</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Product Feedbacks</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Specifications</t>
         </is>
@@ -478,20 +495,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>₹72,999</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.6 ★</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11,969 Ratings &amp; 805 Reviews</t>
+          <t>4.6 ★</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>12,225 Ratings &amp; 824 Reviews</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve">• 128 GB ROM
 • 15.49 cm (6.1 inch) Super Retina XDR Display
@@ -515,20 +537,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>₹72,999</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.6 ★</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11,969 Ratings &amp; 805 Reviews</t>
+          <t>4.6 ★</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>12,225 Ratings &amp; 824 Reviews</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve">• 128 GB ROM
 • 15.49 cm (6.1 inch) Super Retina XDR Display
@@ -552,20 +579,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>₹72,999</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.6 ★</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11,969 Ratings &amp; 805 Reviews</t>
+          <t>4.6 ★</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>12,225 Ratings &amp; 824 Reviews</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve">• 128 GB ROM
 • 15.49 cm (6.1 inch) Super Retina XDR Display
@@ -589,20 +621,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>₹72,999</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.6 ★</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11,969 Ratings &amp; 805 Reviews</t>
+          <t>4.6 ★</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>12,225 Ratings &amp; 824 Reviews</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t xml:space="preserve">• 128 GB ROM
 • 15.49 cm (6.1 inch) Super Retina XDR Display
@@ -626,20 +663,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>₹72,999</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.6 ★</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11,969 Ratings &amp; 805 Reviews</t>
+          <t>4.6 ★</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>12,225 Ratings &amp; 824 Reviews</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t xml:space="preserve">• 128 GB ROM
 • 15.49 cm (6.1 inch) Super Retina XDR Display
@@ -653,4 +695,2818 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Internal Storage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product Feedbacks</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Specifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Black Titanium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1 TB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>₹1,77,990</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.7 ★</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>475 Ratings &amp; 43 Reviews</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 1 TB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>White Titanium</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1 TB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>₹1,77,990</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.7 ★</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>475 Ratings &amp; 43 Reviews</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 1 TB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Natural Titanium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1 TB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>₹1,77,990</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.7 ★</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>475 Ratings &amp; 43 Reviews</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 1 TB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Internal Storage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product Feedbacks</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Specifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>White Titanium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>₹1,48,900</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>349 Ratings &amp; 30 Reviews</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Black Titanium</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>₹1,48,900</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>349 Ratings &amp; 30 Reviews</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Blue Titanium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>₹1,48,900</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>349 Ratings &amp; 30 Reviews</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Natural Titanium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>₹1,48,900</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>349 Ratings &amp; 30 Reviews</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Internal Storage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product Feedbacks</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Specifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Black Titanium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>₹1,68,900</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>349 Ratings &amp; 30 Reviews</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>White Titanium</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>₹1,68,900</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>349 Ratings &amp; 30 Reviews</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Blue Titanium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>₹1,68,900</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>349 Ratings &amp; 30 Reviews</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Natural Titanium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>₹1,68,900</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>349 Ratings &amp; 30 Reviews</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Internal Storage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product Feedbacks</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Specifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>White Titanium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1 TB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>₹1,88,900</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>349 Ratings &amp; 30 Reviews</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 1 TB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Black Titanium</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1 TB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>₹1,88,900</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>349 Ratings &amp; 30 Reviews</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 1 TB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Blue Titanium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1 TB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>₹1,88,900</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>349 Ratings &amp; 30 Reviews</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 1 TB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Natural Titanium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1 TB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>₹1,88,900</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>349 Ratings &amp; 30 Reviews</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 1 TB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Internal Storage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product Feedbacks</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Specifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>₹82,999</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12,225 Ratings &amp; 824 Reviews</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>₹82,999</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12,225 Ratings &amp; 824 Reviews</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>₹82,999</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12,225 Ratings &amp; 824 Reviews</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pink</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>₹82,999</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12,225 Ratings &amp; 824 Reviews</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>₹82,999</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12,225 Ratings &amp; 824 Reviews</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Internal Storage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product Feedbacks</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Specifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>₹1,02,999</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12,225 Ratings &amp; 824 Reviews</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>₹1,02,999</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12,225 Ratings &amp; 824 Reviews</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>₹1,02,999</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12,225 Ratings &amp; 824 Reviews</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pink</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>₹1,02,999</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12,225 Ratings &amp; 824 Reviews</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>₹1,02,999</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12,225 Ratings &amp; 824 Reviews</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Internal Storage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product Feedbacks</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Specifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>₹82,990</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2,689 Ratings &amp; 279 Reviews</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 128 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>₹82,990</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2,689 Ratings &amp; 279 Reviews</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 128 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pink</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>₹82,990</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2,689 Ratings &amp; 279 Reviews</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 128 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>₹82,990</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2,689 Ratings &amp; 279 Reviews</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 128 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>₹82,990</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2,689 Ratings &amp; 279 Reviews</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 128 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Internal Storage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product Feedbacks</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Specifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>₹92,999</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2,689 Ratings &amp; 279 Reviews</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>₹92,999</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2,689 Ratings &amp; 279 Reviews</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>₹92,999</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2,689 Ratings &amp; 279 Reviews</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pink</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>₹92,999</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2,689 Ratings &amp; 279 Reviews</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Internal Storage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product Feedbacks</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Specifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>₹1,12,999</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2,689 Ratings &amp; 279 Reviews</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>₹1,12,999</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2,689 Ratings &amp; 279 Reviews</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pink</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>₹1,12,999</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2,689 Ratings &amp; 279 Reviews</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>₹1,12,999</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2,689 Ratings &amp; 279 Reviews</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>₹1,12,999</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4.6 ★</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2,689 Ratings &amp; 279 Reviews</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 17.02 cm (6.7 inch) Super Retina XDR Display
+• 48MP + 12MP | 12MP Front Camera
+• A16 Bionic Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Internal Storage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product Feedbacks</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Specifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Natural Titanium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>₹1,27,990</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.7 ★</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>475 Ratings &amp; 43 Reviews</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 128 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>White Titanium</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>₹1,27,990</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.7 ★</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>475 Ratings &amp; 43 Reviews</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 128 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Blue Titanium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>₹1,27,990</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.7 ★</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>475 Ratings &amp; 43 Reviews</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 128 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Black Titanium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>₹1,27,990</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.7 ★</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>475 Ratings &amp; 43 Reviews</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 128 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Internal Storage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product Feedbacks</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Specifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Blue Titanium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>₹1,37,990</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.7 ★</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>475 Ratings &amp; 43 Reviews</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>White Titanium</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>₹1,37,990</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.7 ★</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>475 Ratings &amp; 43 Reviews</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Natural Titanium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>₹1,37,990</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.7 ★</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>475 Ratings &amp; 43 Reviews</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Black Titanium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>₹1,37,990</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.7 ★</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>475 Ratings &amp; 43 Reviews</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 256 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Internal Storage</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product Feedbacks</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Specifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>White Titanium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>₹1,58,990</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.7 ★</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>475 Ratings &amp; 43 Reviews</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Natural Titanium</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>₹1,58,990</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.7 ★</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>475 Ratings &amp; 43 Reviews</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Black Titanium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>₹1,58,990</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.7 ★</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>475 Ratings &amp; 43 Reviews</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apple iPhone 15 Pro</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Blue Titanium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>512 GB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>₹1,58,990</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.7 ★</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>475 Ratings &amp; 43 Reviews</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• 512 GB ROM
+• 15.49 cm (6.1 inch) Super Retina XDR Display
+• 48MP + 12MP + 12MP | 12MP Front Camera
+• A17 Pro Chip, 6 Core Processor Processor
+• 1 Year Warranty for Phone and 6 Months Warranty for In-Box Accessories
+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>